--- a/academic_calendar_f2024_s2025.xlsx
+++ b/academic_calendar_f2024_s2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/PhD_logistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E706F-A266-F74F-A6ED-ECA42863821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA115CC-D1CF-2147-A5DF-5BFBE3A9F918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{0948E923-32EC-FE4C-900A-9EC7D92B9079}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Fall 2024</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Day of the week</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Last Day of Instruction</t>
   </si>
   <si>
-    <t>December 10 - 12</t>
-  </si>
-  <si>
     <t>Tuesday - Thursday</t>
   </si>
   <si>
@@ -117,15 +111,6 @@
     <t>Winter 2024-25</t>
   </si>
   <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Winter Session Instruction Begins</t>
-  </si>
-  <si>
-    <t>Winter Session Instruction Ends</t>
-  </si>
-  <si>
     <t>Martin Luther King, Jr. Day / Holiday / No Classes</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>Study Days End</t>
   </si>
   <si>
-    <t>May 23 - 25</t>
-  </si>
-  <si>
     <t>Friday - Sunday</t>
   </si>
   <si>
@@ -235,6 +217,9 @@
   </si>
   <si>
     <t>Add Winter Break 2024 to Outlook calendar</t>
+  </si>
+  <si>
+    <t>Holiday</t>
   </si>
 </sst>
 </file>
@@ -242,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,8 +276,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9B4910"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF97588"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,19 +311,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6B7"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD1EAFF"/>
+        <fgColor rgb="FF9B4910"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA54E"/>
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97588"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,128 +507,113 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,13 +624,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF97588"/>
+      <color rgb="FF9B4910"/>
       <color rgb="FFFFA54E"/>
       <color rgb="FFD1EAFF"/>
       <color rgb="FFFFA6B7"/>
       <color rgb="FFE59451"/>
-      <color rgb="FFF97588"/>
       <color rgb="FFB4CCE5"/>
-      <color rgb="FF9B4910"/>
       <color rgb="FF82A2CC"/>
     </mruColors>
   </colors>
@@ -964,432 +965,402 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="8"/>
     <col min="6" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="47" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45530</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36">
-        <v>45530</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="15">
+        <v>45537</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="9">
-        <v>45537</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="15">
+        <v>45577</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="15">
+        <v>45579</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="15">
+        <v>45581</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="18">
+        <v>45607</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="18">
+        <v>45623</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="18">
+        <v>45628</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="18">
+        <v>45635</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="18">
+        <v>45636</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="18">
+        <v>45639</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="18">
+        <v>45647</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="18">
+        <v>45648</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="21">
+        <v>45657</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="24">
+        <v>45677</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="27">
+        <v>45312</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="41"/>
+      <c r="B18" s="30">
+        <v>45337</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="9">
-        <v>45577</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="9">
-        <v>45579</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="D18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="30">
+        <v>45341</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="9">
-        <v>45581</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="9">
-        <v>45607</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="9">
-        <v>45623</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="30">
+        <v>45380</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="30">
+        <v>45389</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="30">
+        <v>45418</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="9">
-        <v>45628</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="9">
-        <v>45635</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="30">
+        <v>45419</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="30">
+        <v>45421</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D24" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="41"/>
+      <c r="B25" s="30">
+        <v>45422</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="9">
-        <v>45639</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="41"/>
+      <c r="B26" s="30">
+        <v>45429</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="9">
-        <v>45647</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="9">
-        <v>45648</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42">
-        <v>45657</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="26">
-        <v>45293</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="11">
-        <v>45308</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32">
-        <v>45311</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="33">
+        <v>45435</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="16">
-        <v>45312</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="13">
-        <v>45337</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="D27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="13">
-        <v>45341</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="13">
-        <v>45380</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="13">
-        <v>45389</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="13">
-        <v>45418</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="13">
-        <v>45419</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="13">
-        <v>45421</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="13">
-        <v>45422</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="13">
-        <v>45429</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>20</v>
-      </c>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>37</v>
-      </c>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A17:A27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" display="https://commencement.cornell.edu/" xr:uid="{CCA23826-322C-9342-9995-519B5FB5738D}"/>
-    <hyperlink ref="D29" r:id="rId2" display="http://commencement.cornell.edu/" xr:uid="{2ED3C2F3-8767-E249-9D86-AE7941D5ACB2}"/>
+    <hyperlink ref="D27" r:id="rId2" display="http://commencement.cornell.edu/" xr:uid="{2ED3C2F3-8767-E249-9D86-AE7941D5ACB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1413,22 +1384,22 @@
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="23" x14ac:dyDescent="0.25">
@@ -1436,22 +1407,22 @@
     </row>
     <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="23" x14ac:dyDescent="0.25">
@@ -1459,22 +1430,22 @@
     </row>
     <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="23" x14ac:dyDescent="0.25">
@@ -1482,22 +1453,22 @@
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="23" x14ac:dyDescent="0.25">
@@ -1505,22 +1476,22 @@
     </row>
     <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="23" x14ac:dyDescent="0.25">
@@ -1528,22 +1499,22 @@
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="23" x14ac:dyDescent="0.25">
@@ -1551,22 +1522,22 @@
     </row>
     <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
